--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal spasm a.k.a Jackhammer Esophagus_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Esophageal spasm a.k.a Jackhammer Esophagus_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for liquids, is a common symptom associated with esophageal spasm, indicating a potential motility disorder.</t>
+          <t>Pain relief with regurgitation is a characteristic feature of esophageal spasm, as the spasm can cause pain that is alleviated when the esophagus clears.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>In esophageal spasm, patients often find relief with antacids; lack of relief suggests a different underlying issue.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders, which can mimic esophageal symptoms but are not typical of primary esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysphagia for solids further supports the diagnosis of esophageal spasm, as it reflects impaired esophageal motility.</t>
+          <t>Dysphagia, especially for liquids, is a common symptom of esophageal motility disorders like Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than esophageal spasm, which typically presents with more acute symptoms.</t>
+          <t>Telangiectasias are associated with systemic sclerosis, which can cause esophageal symptoms but are not specific to Jackhammer Esophagus.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Odynophagia can occur in esophageal spasm due to the intense contractions causing pain during swallowing.</t>
+          <t>Non-progressive dysphagia for liquids suggests a motility disorder rather than a structural obstruction, supporting esophageal spasm.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic reflux is not characteristic of esophageal spasm and suggests a different etiology, such as GERD.</t>
+          <t>Disproportionate hand pain suggests a rheumatologic condition rather than a primary esophageal disorder.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain relieved with regurgitation is present.</t>
+          <t>Onset of chest pain associated with eating food is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regurgitation can provide temporary relief from the pain associated with esophageal spasms, suggesting a connection between the two.</t>
+          <t>Chest pain triggered by eating is typical of esophageal motility disorders, including Jackhammer Esophagus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Long-standing heartburn (duration of years) is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weight loss can indicate a more serious underlying condition or malignancy rather than esophageal spasm, which typically does not cause significant weight loss.</t>
+          <t>Chronic heartburn is more indicative of gastroesophageal reflux disease (GERD) than esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tightness (character of pain) is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The tightness of pain is characteristic of esophageal spasms, which can present as a squeezing or tight sensation in the chest.</t>
+          <t>Odynophagia can occur in esophageal spasm due to the intense contractions causing pain during swallowing.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Long-standing reflux (duration of years) is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current heartburn is more indicative of reflux disease rather than esophageal spasm, which is characterized by intermittent chest pain rather than persistent heartburn.</t>
+          <t>Chronic reflux is more characteristic of GERD, which can coexist with but is not specific to esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esophageal spasm a.k.a Jackhammer Esophagus is more commonly reported in females, which supports the likelihood of this diagnosis.</t>
+          <t>Esophageal spasm can occur in females, and being female does not rule out the condition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Alcohol use disorder is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Radiation treatment in these areas can lead to esophageal motility disorders; its absence suggests a lower likelihood of esophageal spasm.</t>
+          <t>Alcohol use can exacerbate esophageal spasms, so its absence slightly reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The condition is often seen in middle-aged individuals, making this demographic factor supportive of the diagnosis.</t>
+          <t>Esophageal spasm is more common in middle-aged individuals, supporting the diagnosis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Nicotine dependence is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with cardiovascular issues that can affect esophageal motility; its absence may indicate a lower risk for esophageal spasm.</t>
+          <t>Nicotine can worsen esophageal spasms, so its absence slightly reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a calcium channel blocker that can sometimes be associated with esophageal motility disorders, including esophageal spasm.</t>
+          <t>Amlodipine is sometimes used to manage esophageal spasms, suggesting a history of esophageal issues.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of diagnosed coronary artery disease</t>
+          <t>Prior treatment with radiation to the neck, arm, or jaw is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Coronary artery disease can be associated with esophageal motility disorders; its absence may suggest a lower likelihood of esophageal spasm.</t>
+          <t>Radiation can lead to esophageal motility disorders, so its absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of coronary artery disease.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use can exacerbate esophageal conditions, its absence does not directly negate the possibility of esophageal spasm.</t>
+          <t>Absence of coronary artery disease makes cardiac causes of chest pain less likely, indirectly supporting esophageal causes.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Diagnosed hypertension is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for various gastrointestinal disorders, including esophageal motility issues; its absence may reduce the likelihood of esophageal spasm.</t>
+          <t>Hypertension can be associated with esophageal motility disorders, so its absence slightly reduces the likelihood.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of prior myocardial infarction.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol, nicotine can affect esophageal motility, and its absence does not rule out esophageal spasm.</t>
+          <t>Absence of myocardial infarction reduces the likelihood of cardiac-related chest pain, supporting esophageal causes.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of type 2 diabetes</t>
+          <t>Recent medication changes is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Type 2 diabetes can lead to autonomic neuropathy affecting esophageal motility; its absence may suggest a lower risk for esophageal spasm.</t>
+          <t>Recent medication changes can trigger esophageal spasms, so their absence reduces the likelihood.</t>
         </is>
       </c>
     </row>
@@ -773,12 +774,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of a family history of cancer may suggest a lower likelihood of esophageal malignancies, which can mimic or complicate esophageal spasm.</t>
+          <t>The absence of current tobacco use reduces the likelihood of esophageal motility disorders, including esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -790,7 +791,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use has been associated with various esophageal disorders, including esophageal spasm.</t>
+          <t>Tobacco use can contribute to esophageal motility disorders, including esophageal spasm.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -800,7 +801,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of recent travel reduces the likelihood of infections or conditions acquired abroad that could affect esophageal function.</t>
+          <t>The absence of recent travel reduces the likelihood of stress-related triggers for esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -812,17 +813,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cardiovascular issues can sometimes correlate with esophageal motility disorders, suggesting a potential link.</t>
+          <t>While not directly related, cardiovascular issues in the family may suggest a predisposition to conditions affecting smooth muscle function, like esophageal spasm.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent medical procedure is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent medical procedures suggests that there are no iatrogenic causes for esophageal symptoms, which could otherwise mimic esophageal spasm.</t>
+          <t>While not directly related, the absence of cancer in the family may reduce the likelihood of esophageal conditions that mimic spasm.</t>
         </is>
       </c>
     </row>
@@ -834,17 +835,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Absence of autoimmune conditions like rheumatoid arthritis may suggest a lower likelihood of esophageal involvement from such diseases, focusing on primary esophageal issues.</t>
+          <t>The absence of autoimmune conditions in the family may not directly support esophageal spasm but does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gestational complications with prior pregnancy is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Absence of gestational complications may indicate a lower likelihood of related esophageal motility issues, focusing on primary esophageal conditions.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -856,17 +857,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use reduces the likelihood of alcohol-related esophageal disorders, allowing for a clearer focus on esophageal spasm.</t>
+          <t>The absence of alcohol use, which can exacerbate esophageal conditions, may indirectly support the presence of esophageal spasm by ruling out other causes.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Gestational complications with prior pregnancy is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of current tobacco use suggests a lower risk for tobacco-related esophageal disorders, which could otherwise complicate the diagnosis.</t>
+          <t>The absence of gestational complications suggests no underlying systemic issues that could contribute to esophageal spasm.</t>
         </is>
       </c>
     </row>
@@ -914,12 +915,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can occur in patients with Esophageal spasm due to difficulty swallowing and subsequent avoidance of food intake.</t>
+          <t>Telangiectasias can be associated with esophageal motility disorders, including esophageal spasm, as part of connective tissue diseases.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -929,19 +930,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there is no underlying connective tissue disease, which is often associated with esophageal motility disorders.</t>
+          <t>Raynaud's phenomenon can be associated with esophageal motility disorders, and its absence may argue against a connective tissue-related esophageal spasm.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with connective tissue disorders that may also present with esophageal motility disorders, including esophageal spasm.</t>
+          <t>Weight loss can occur due to difficulty swallowing and discomfort associated with esophageal spasms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -951,73 +952,224 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice can indicate that there is no esophageal or laryngeal irritation, which is often present in esophageal spasm.</t>
+          <t>Hoarseness can be associated with esophageal disorders due to reflux or motility issues, and its absence may argue against esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Absence of obesity by vital signs.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Obesity is not typically associated with esophageal spasm, and its absence does not contradict the diagnosis.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Cough observed is absent.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>The absence of cough may suggest that the esophagus is not inflamed or irritated, which can be a feature in patients with esophageal spasm.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Cough observed is absent.</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there is no esophageal irritation or reflux, which can be associated with esophageal spasm.</t>
+          <t>Cough can be a symptom of esophageal disorders due to reflux or aspiration, and its absence may argue against esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests that there is no laryngeal involvement, which can sometimes accompany esophageal issues, thus supporting the diagnosis of esophageal spasm.</t>
+          <t>High blood pressure is not directly related to esophageal spasm, so its absence does not contradict the diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Epigastric pain on palpation is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of weakness may indicate that there is no systemic illness affecting the patient, which could be associated with esophageal spasm.</t>
+          <t>Epigastric pain can be associated with esophageal disorders, and its absence may argue against esophageal involvement.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent.</t>
+          <t>Absence of neck masses or fullness observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may indicate that the pain is not due to other gastrointestinal conditions, thus supporting the diagnosis of esophageal spasm.</t>
+          <t>Neck masses are not typically associated with esophageal spasm, so their absence does not contradict the diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Obesity by vital signs is absent.</t>
+          <t>Hand thickening observed is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of obesity may suggest that the patient does not have metabolic syndrome, which can complicate esophageal motility disorders.</t>
+          <t>Hand thickening can be associated with connective tissue diseases that may involve esophageal spasm, and its absence may argue against such a connection.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Esophageal spasm a.k.a Jackhammer Esophagus</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Esophageal spasm a.k.a Jackhammer Esophagus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Esophageal spasm a.k.a Jackhammer Esophagus</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Esophageal spasm a.k.a Jackhammer Esophagus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to esophageal spasm but can be associated with other conditions that may coexist with esophageal motility disorders.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A strong positive ANA could indicate an autoimmune process that might contribute to esophageal motility disorders, so its absence slightly argues against such a secondary cause.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA does not directly support esophageal spasm but rules out autoimmune conditions that could mimic or contribute to esophageal symptoms.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Aspiration is a potential complication of severe esophageal motility disorders, so its absence suggests a less severe or different condition.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS suggests that while there may be esophageal motility issues, they are not severe enough to cause aspiration, which can occur in severe motility disorders.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of ILD suggests that systemic sclerosis, which can cause esophageal motility disorders, is less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT rules out interstitial lung disease, which can be associated with systemic sclerosis, a condition that can cause esophageal motility disorders.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A widened mediastinum could indicate a structural cause for esophageal symptoms, so its absence suggests a primary motility disorder is less likely.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR rules out conditions like aortic aneurysm, which can cause secondary esophageal symptoms.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to esophageal spasm and does not provide strong evidence against it, but it is more related to cardiovascular risk factors.</t>
         </is>
       </c>
     </row>
